--- a/data/04-08-2025.xlsx
+++ b/data/04-08-2025.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -500,9 +500,51 @@
         <v>fjelkjweoitjeiogtnegiejtoiejtekgegijetioengekgneitjeiogbeklteiotjegkeiejtiegnekjeiotnegkieieteiogjeiej</v>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>coluummmmn</v>
+      </c>
+      <c r="B8" t="str">
+        <v>test@movingsurface.com</v>
+      </c>
+      <c r="C8" t="str">
+        <v/>
+      </c>
+      <c r="D8" t="str">
+        <v>afjejignaitewinagkweitigaigatij</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="str">
+        <v>Smokkeyy</v>
+      </c>
+      <c r="B9" t="str">
+        <v>krast@gun.com</v>
+      </c>
+      <c r="C9" t="str">
+        <v/>
+      </c>
+      <c r="D9" t="str">
+        <v>a rugged statement</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="str">
+        <v>Mabushi</v>
+      </c>
+      <c r="B10" t="str">
+        <v>machaaalala</v>
+      </c>
+      <c r="C10" t="str">
+        <v/>
+      </c>
+      <c r="D10" t="str">
+        <v>machaaalala</v>
+      </c>
+    </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:D7"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:D10"/>
   </ignoredErrors>
 </worksheet>
 </file>